--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_13_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_13_21.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>343444.6672352435</v>
+        <v>348060.7864660514</v>
       </c>
     </row>
     <row r="7">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100.0000000001</v>
+        <v>133100</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>70639.97070810379</v>
+        <v>69879.81359544017</v>
       </c>
       <c r="C4" t="n">
-        <v>70639.97070810379</v>
+        <v>69879.81359544017</v>
       </c>
       <c r="D4" t="n">
-        <v>70639.97070810379</v>
+        <v>69879.81359544017</v>
       </c>
       <c r="E4" t="n">
-        <v>41861.60900671707</v>
+        <v>41411.13600233983</v>
       </c>
       <c r="F4" t="n">
-        <v>41861.60900671707</v>
+        <v>41411.13600233983</v>
       </c>
       <c r="G4" t="n">
-        <v>41861.60900671707</v>
+        <v>41411.13600233983</v>
       </c>
       <c r="H4" t="n">
-        <v>41861.60900671707</v>
+        <v>41411.13600233983</v>
       </c>
       <c r="I4" t="n">
-        <v>41861.60900671707</v>
+        <v>41411.13600233983</v>
       </c>
       <c r="J4" t="n">
-        <v>41861.60900671707</v>
+        <v>41411.13600233983</v>
       </c>
       <c r="K4" t="n">
-        <v>41861.60900671707</v>
+        <v>41411.13600233983</v>
       </c>
       <c r="L4" t="n">
-        <v>41861.60900671707</v>
+        <v>41411.13600233983</v>
       </c>
       <c r="M4" t="n">
-        <v>41861.60900671707</v>
+        <v>41411.13600233983</v>
       </c>
       <c r="N4" t="n">
-        <v>41861.60900671707</v>
+        <v>41411.13600233983</v>
       </c>
       <c r="O4" t="n">
-        <v>41861.60900671707</v>
+        <v>41411.13600233983</v>
       </c>
       <c r="P4" t="n">
-        <v>41861.60900671707</v>
+        <v>41411.13600233983</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8615.2050999149</v>
+        <v>9375.362212578533</v>
       </c>
       <c r="C6" t="n">
-        <v>8615.2050999149</v>
+        <v>9375.362212578533</v>
       </c>
       <c r="D6" t="n">
-        <v>8615.205099914914</v>
+        <v>9375.362212578533</v>
       </c>
       <c r="E6" t="n">
-        <v>-58536.64555436871</v>
+        <v>-58086.17254999141</v>
       </c>
       <c r="F6" t="n">
-        <v>74563.35444563135</v>
+        <v>75013.8274500086</v>
       </c>
       <c r="G6" t="n">
-        <v>74563.35444563135</v>
+        <v>75013.8274500086</v>
       </c>
       <c r="H6" t="n">
-        <v>74563.35444563135</v>
+        <v>75013.8274500086</v>
       </c>
       <c r="I6" t="n">
-        <v>74563.35444563135</v>
+        <v>75013.8274500086</v>
       </c>
       <c r="J6" t="n">
-        <v>74563.35444563135</v>
+        <v>75013.8274500086</v>
       </c>
       <c r="K6" t="n">
-        <v>74563.35444563135</v>
+        <v>75013.8274500086</v>
       </c>
       <c r="L6" t="n">
-        <v>74563.35444563135</v>
+        <v>75013.8274500086</v>
       </c>
       <c r="M6" t="n">
-        <v>74563.35444563135</v>
+        <v>75013.8274500086</v>
       </c>
       <c r="N6" t="n">
-        <v>74563.35444563135</v>
+        <v>75013.8274500086</v>
       </c>
       <c r="O6" t="n">
-        <v>74563.35444563135</v>
+        <v>75013.8274500086</v>
       </c>
       <c r="P6" t="n">
-        <v>74563.35444563135</v>
+        <v>75013.8274500086</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_13_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_13_21.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>348060.7864660514</v>
+        <v>361787.1446034696</v>
       </c>
     </row>
     <row r="7">
@@ -26320,7 +26322,7 @@
         <v>112882.7758080187</v>
       </c>
       <c r="E2" t="n">
-        <v>120036.5755573567</v>
+        <v>120036.5755573568</v>
       </c>
       <c r="F2" t="n">
         <v>120036.5755573567</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>69879.81359544017</v>
+        <v>69879.81359544015</v>
       </c>
       <c r="C4" t="n">
-        <v>69879.81359544017</v>
+        <v>69879.81359544015</v>
       </c>
       <c r="D4" t="n">
-        <v>69879.81359544017</v>
+        <v>69879.81359544015</v>
       </c>
       <c r="E4" t="n">
         <v>41411.13600233983</v>
@@ -26519,16 +26521,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9375.362212578533</v>
+        <v>9375.362212578555</v>
       </c>
       <c r="C6" t="n">
-        <v>9375.362212578533</v>
+        <v>9375.362212578555</v>
       </c>
       <c r="D6" t="n">
-        <v>9375.362212578533</v>
+        <v>9375.36221257854</v>
       </c>
       <c r="E6" t="n">
-        <v>-58086.17254999141</v>
+        <v>-58086.17254999145</v>
       </c>
       <c r="F6" t="n">
         <v>75013.8274500086</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_13_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_13_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>361787.1446034696</v>
+        <v>236677.2458059929</v>
       </c>
     </row>
     <row r="7">
@@ -26325,37 +26325,37 @@
         <v>120036.5755573568</v>
       </c>
       <c r="F2" t="n">
-        <v>120036.5755573567</v>
+        <v>120036.5755573568</v>
       </c>
       <c r="G2" t="n">
-        <v>120036.5755573567</v>
+        <v>120036.5755573568</v>
       </c>
       <c r="H2" t="n">
-        <v>120036.5755573567</v>
+        <v>120036.5755573568</v>
       </c>
       <c r="I2" t="n">
-        <v>120036.5755573567</v>
+        <v>120036.5755573568</v>
       </c>
       <c r="J2" t="n">
-        <v>120036.5755573567</v>
+        <v>120036.5755573568</v>
       </c>
       <c r="K2" t="n">
-        <v>120036.5755573567</v>
+        <v>120036.5755573568</v>
       </c>
       <c r="L2" t="n">
-        <v>120036.5755573567</v>
+        <v>120036.5755573568</v>
       </c>
       <c r="M2" t="n">
-        <v>120036.5755573567</v>
+        <v>120036.5755573568</v>
       </c>
       <c r="N2" t="n">
-        <v>120036.5755573567</v>
+        <v>120036.5755573568</v>
       </c>
       <c r="O2" t="n">
-        <v>120036.5755573567</v>
+        <v>120036.5755573568</v>
       </c>
       <c r="P2" t="n">
-        <v>120036.5755573567</v>
+        <v>120036.5755573568</v>
       </c>
     </row>
     <row r="3">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9375.362212578555</v>
+        <v>-5775.311757456224</v>
       </c>
       <c r="C6" t="n">
-        <v>9375.362212578555</v>
+        <v>-5775.311757456224</v>
       </c>
       <c r="D6" t="n">
-        <v>9375.36221257854</v>
+        <v>-5775.311757456224</v>
       </c>
       <c r="E6" t="n">
-        <v>-58086.17254999145</v>
+        <v>-72896.18938910536</v>
       </c>
       <c r="F6" t="n">
-        <v>75013.8274500086</v>
+        <v>60203.81061089471</v>
       </c>
       <c r="G6" t="n">
-        <v>75013.8274500086</v>
+        <v>60203.81061089471</v>
       </c>
       <c r="H6" t="n">
-        <v>75013.8274500086</v>
+        <v>60203.81061089471</v>
       </c>
       <c r="I6" t="n">
-        <v>75013.8274500086</v>
+        <v>60203.81061089471</v>
       </c>
       <c r="J6" t="n">
-        <v>75013.8274500086</v>
+        <v>60203.81061089471</v>
       </c>
       <c r="K6" t="n">
-        <v>75013.8274500086</v>
+        <v>60203.81061089471</v>
       </c>
       <c r="L6" t="n">
-        <v>75013.8274500086</v>
+        <v>60203.81061089471</v>
       </c>
       <c r="M6" t="n">
-        <v>75013.8274500086</v>
+        <v>60203.81061089471</v>
       </c>
       <c r="N6" t="n">
-        <v>75013.8274500086</v>
+        <v>60203.81061089471</v>
       </c>
       <c r="O6" t="n">
-        <v>75013.8274500086</v>
+        <v>60203.81061089471</v>
       </c>
       <c r="P6" t="n">
-        <v>75013.8274500086</v>
+        <v>60203.81061089471</v>
       </c>
     </row>
   </sheetData>
